--- a/biology/Botanique/Senna_italica/Senna_italica.xlsx
+++ b/biology/Botanique/Senna_italica/Senna_italica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna italica est une espèce de plantes de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est appelé mbali ou balibali en bambara, et leydour en wolof.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles, les gousses et les graines de Senna italica sont principalement utilisées en médecine traditionnelle.  Au Malawi, la perfusion de racines est utilisée pour traiter la diarrhée chez les nourrissons.
 Les rapports sur les utilisations de Senna italica sont contradictoires. En Afrique de l'Est, il est consommé par la plupart des animaux d'élevage, alors qu'en Afrique de l'Ouest, il est souvent évité. Dans les régions du Sahel, les jeunes graines sont consommées comme collations ou comme légume.  En revanche, les graines sont fumées en Mauritanie. En Inde, les feuilles sont utilisées comme traitement capillaire appelé henné neutre ou «henné blond». Ce traitement recouvre les cheveux pour qu'ils soient brillants et épais pendant plusieurs semaines, mais au lieu d'être complètement neutre, le "henné neutre" semble avoir un impact jaunâtre sur les cheveux plutôt que celui rougeâtre produit par le henné.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 juillet 2013)[2] et Tropicos                                           (2 juillet 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 juillet 2013) et Tropicos                                           (2 juillet 2013) :
 sous-espèce Senna italica subsp. arachoidea (Burch.) Lock
 sous-espèce Senna italica subsp. italica
 sous-espèce Senna italica subsp. micrantha (Brenan) Lock</t>
